--- a/tests/Unit/B035/B035_ジョギングランキング.xlsx
+++ b/tests/Unit/B035/B035_ジョギングランキング.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t xml:space="preserve">概要</t>
   </si>
@@ -133,15 +133,6 @@
     <t xml:space="preserve">this_months_joggings</t>
   </si>
   <si>
-    <t xml:space="preserve">先月は不在の部員配列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先月は不在の部員の名前</t>
-  </si>
-  <si>
     <t xml:space="preserve">距離集計配列</t>
   </si>
   <si>
@@ -181,7 +172,7 @@
     <t xml:space="preserve">step1</t>
   </si>
   <si>
-    <t xml:space="preserve">fixed_value_read</t>
+    <t xml:space="preserve">readFixedvalue</t>
   </si>
   <si>
     <t xml:space="preserve">データファイルからN,M,Tを取得する。</t>
@@ -190,7 +181,7 @@
     <t xml:space="preserve">step2</t>
   </si>
   <si>
-    <t xml:space="preserve">last_month_value_read</t>
+    <t xml:space="preserve">readLastmonth</t>
   </si>
   <si>
     <r>
@@ -228,7 +219,7 @@
     <t xml:space="preserve">step3</t>
   </si>
   <si>
-    <t xml:space="preserve">this_month_value_read</t>
+    <t xml:space="preserve">readThisMonthValue</t>
   </si>
   <si>
     <r>
@@ -266,7 +257,7 @@
     <t xml:space="preserve">step4</t>
   </si>
   <si>
-    <t xml:space="preserve">Member_name_check</t>
+    <t xml:space="preserve">existsMemberName</t>
   </si>
   <si>
     <t xml:space="preserve">今月のジョギングデータの部員の名前が先月も存在するか確認する。</t>
@@ -275,7 +266,7 @@
     <t xml:space="preserve">step5</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative jogging distance</t>
+    <t xml:space="preserve">aclDistance</t>
   </si>
   <si>
     <t xml:space="preserve">今月のジョギングデータを部員の名前をKEYに距離を累積して距離集計配列に追加する。</t>
@@ -284,7 +275,7 @@
     <t xml:space="preserve">step6</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative_jogging_distance_sort</t>
+    <t xml:space="preserve">sortCumulativedistances</t>
   </si>
   <si>
     <r>
@@ -322,7 +313,7 @@
     <t xml:space="preserve">step7</t>
   </si>
   <si>
-    <t xml:space="preserve">Grade judgment</t>
+    <t xml:space="preserve">judGrades</t>
   </si>
   <si>
     <r>
@@ -380,7 +371,7 @@
     <t xml:space="preserve">step8</t>
   </si>
   <si>
-    <t xml:space="preserve">Create gradebook</t>
+    <t xml:space="preserve">createGradebook</t>
   </si>
   <si>
     <r>
@@ -422,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -458,12 +449,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -525,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -543,10 +528,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,9 +554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -585,7 +566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10046880" y="194400"/>
-          <a:ext cx="4296240" cy="3062880"/>
+          <a:ext cx="4295880" cy="3062520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,10 +858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,31 +1075,22 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -1132,154 +1104,144 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
